--- a/Results/6/Output_Top_10.xlsx
+++ b/Results/6/Output_Top_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,25 +491,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>19.33</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>781</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Animal1</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -526,21 +526,21 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>758</v>
+        <v>794</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Animal1</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -553,20 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>26.67</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>945.33</v>
+        <v>935</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -584,25 +584,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>1118</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -615,25 +615,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>1204.75</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -646,25 +646,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>1508</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -677,25 +677,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>1474.5</v>
+        <v>381.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>1200</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -739,25 +739,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>1408</v>
+        <v>925</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -770,20 +770,20 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>832.5</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -792,29 +792,29 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>972.5</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -823,29 +823,29 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>778</v>
+        <v>495.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -854,42 +854,42 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>786</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -898,47 +898,47 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>800</v>
+        <v>1023.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>645.33</v>
+        <v>764</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,42 +947,42 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>1282.5</v>
+        <v>773</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -991,52 +991,52 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>1642</v>
+        <v>801</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>1895</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Animal1</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1049,25 +1049,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>19.33</v>
+        <v>14</v>
       </c>
       <c r="G20" t="n">
-        <v>873</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Animal1</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1080,479 +1080,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="G21" t="n">
-        <v>879.25</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Animal1</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>14</v>
-      </c>
-      <c r="G22" t="n">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Animal2</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ASR_control</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Animal2</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>gap_depth</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Animal2</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>14</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Animal4</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ASR_control</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>18</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2135</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Animal4</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>gap_depth</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>12</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Animal4</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>gap_depth</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="G29" t="n">
-        <v>984.25</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>28</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Animal10</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ASR_control</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>13</v>
-      </c>
-      <c r="G31" t="n">
-        <v>896.75</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Animal10</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>gap_depth</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>12</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1098.5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Animal10</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>14</v>
-      </c>
-      <c r="G33" t="n">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Animal15</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>ASR_control</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>12</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Animal15</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>gap_depth</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>20</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Animal15</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1808.75</v>
+        <v>1090</v>
       </c>
     </row>
   </sheetData>
